--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>45446.6495717593</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B585" t="n">
         <v>37896</v>
@@ -16293,6 +16293,32 @@
         <v>244</v>
       </c>
       <c r="H585" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>45447.6494675926</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C586" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D586" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E586" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F586" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G586" t="s">
+        <v>243</v>
+      </c>
+      <c r="H586" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.11999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1399998664856</t>
   </si>
 </sst>
 </file>
@@ -16298,7 +16301,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>45447.6494675926</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B586" t="n">
         <v>1398</v>
@@ -16307,7 +16310,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="D586" t="n">
-        <v>6.11999988555908</v>
+        <v>6.09999990463257</v>
       </c>
       <c r="E586" t="n">
         <v>6.11999988555908</v>
@@ -16319,6 +16322,32 @@
         <v>243</v>
       </c>
       <c r="H586" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>45448.6140393519</v>
+      </c>
+      <c r="B587" t="n">
+        <v>17488</v>
+      </c>
+      <c r="C587" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D587" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E587" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F587" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="G587" t="s">
+        <v>245</v>
+      </c>
+      <c r="H587" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>45448.6140393519</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B587" t="n">
         <v>17488</v>
@@ -16348,6 +16348,32 @@
         <v>245</v>
       </c>
       <c r="H587" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>45449.6494560185</v>
+      </c>
+      <c r="B588" t="n">
+        <v>52412</v>
+      </c>
+      <c r="C588" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D588" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F588" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G588" t="s">
+        <v>243</v>
+      </c>
+      <c r="H588" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>45449.6494560185</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B588" t="n">
         <v>52412</v>
@@ -16362,7 +16362,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="D588" t="n">
-        <v>6.11999988555908</v>
+        <v>6.09999990463257</v>
       </c>
       <c r="E588" t="n">
         <v>6.11999988555908</v>
@@ -16374,6 +16374,32 @@
         <v>243</v>
       </c>
       <c r="H588" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>45450.6493981481</v>
+      </c>
+      <c r="B589" t="n">
+        <v>63090</v>
+      </c>
+      <c r="C589" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D589" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E589" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F589" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G589" t="s">
+        <v>243</v>
+      </c>
+      <c r="H589" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16379,7 +16379,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>45450.6493981481</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B589" t="n">
         <v>63090</v>
@@ -16400,6 +16400,32 @@
         <v>243</v>
       </c>
       <c r="H589" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>45453.6495833333</v>
+      </c>
+      <c r="B590" t="n">
+        <v>5190</v>
+      </c>
+      <c r="C590" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="D590" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E590" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F590" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G590" t="s">
+        <v>243</v>
+      </c>
+      <c r="H590" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16405,7 +16405,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>45453.6495833333</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B590" t="n">
         <v>5190</v>
@@ -16426,6 +16426,32 @@
         <v>243</v>
       </c>
       <c r="H590" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>45455.6495601852</v>
+      </c>
+      <c r="B591" t="n">
+        <v>15352</v>
+      </c>
+      <c r="C591" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D591" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E591" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F591" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G591" t="s">
+        <v>244</v>
+      </c>
+      <c r="H591" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16431,10 +16431,10 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>45455.6495601852</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B591" t="n">
-        <v>15352</v>
+        <v>5378</v>
       </c>
       <c r="C591" t="n">
         <v>6.11999988555908</v>
@@ -16443,7 +16443,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="E591" t="n">
-        <v>6.09999990463257</v>
+        <v>6.11999988555908</v>
       </c>
       <c r="F591" t="n">
         <v>6.11999988555908</v>
@@ -16452,6 +16452,58 @@
         <v>244</v>
       </c>
       <c r="H591" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B592" t="n">
+        <v>15352</v>
+      </c>
+      <c r="C592" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D592" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E592" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F592" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G592" t="s">
+        <v>244</v>
+      </c>
+      <c r="H592" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>45456.6496296296</v>
+      </c>
+      <c r="B593" t="n">
+        <v>26022</v>
+      </c>
+      <c r="C593" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="D593" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F593" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G593" t="s">
+        <v>243</v>
+      </c>
+      <c r="H593" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>45456.6496296296</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B593" t="n">
         <v>26022</v>
@@ -16504,6 +16504,32 @@
         <v>243</v>
       </c>
       <c r="H593" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>45457.649537037</v>
+      </c>
+      <c r="B594" t="n">
+        <v>16463</v>
+      </c>
+      <c r="C594" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D594" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E594" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F594" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G594" t="s">
+        <v>243</v>
+      </c>
+      <c r="H594" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16509,7 +16509,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>45457.649537037</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B594" t="n">
         <v>16463</v>
@@ -16530,6 +16530,32 @@
         <v>243</v>
       </c>
       <c r="H594" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>45460.6493055556</v>
+      </c>
+      <c r="B595" t="n">
+        <v>36291</v>
+      </c>
+      <c r="C595" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="D595" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E595" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F595" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G595" t="s">
+        <v>243</v>
+      </c>
+      <c r="H595" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16535,7 +16535,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>45460.6493055556</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B595" t="n">
         <v>36291</v>
@@ -16556,6 +16556,32 @@
         <v>243</v>
       </c>
       <c r="H595" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>45461.6495717593</v>
+      </c>
+      <c r="B596" t="n">
+        <v>2761</v>
+      </c>
+      <c r="C596" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="D596" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E596" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F596" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G596" t="s">
+        <v>243</v>
+      </c>
+      <c r="H596" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16561,7 +16561,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>45461.6495717593</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B596" t="n">
         <v>2761</v>
@@ -16582,6 +16582,32 @@
         <v>243</v>
       </c>
       <c r="H596" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>45462.6495486111</v>
+      </c>
+      <c r="B597" t="n">
+        <v>25938</v>
+      </c>
+      <c r="C597" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D597" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E597" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F597" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G597" t="s">
+        <v>243</v>
+      </c>
+      <c r="H597" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16587,7 +16587,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>45462.6495486111</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B597" t="n">
         <v>25938</v>
@@ -16608,6 +16608,32 @@
         <v>243</v>
       </c>
       <c r="H597" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>45463.6495486111</v>
+      </c>
+      <c r="B598" t="n">
+        <v>130756</v>
+      </c>
+      <c r="C598" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D598" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E598" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F598" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G598" t="s">
+        <v>244</v>
+      </c>
+      <c r="H598" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16613,7 +16613,7 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>45463.6495486111</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B598" t="n">
         <v>130756</v>
@@ -16634,6 +16634,32 @@
         <v>244</v>
       </c>
       <c r="H598" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>45464.6496296296</v>
+      </c>
+      <c r="B599" t="n">
+        <v>110084</v>
+      </c>
+      <c r="C599" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D599" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E599" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F599" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="G599" t="s">
+        <v>245</v>
+      </c>
+      <c r="H599" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>45464.6496296296</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B599" t="n">
         <v>110084</v>
@@ -16660,6 +16660,32 @@
         <v>245</v>
       </c>
       <c r="H599" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>45467.6493634259</v>
+      </c>
+      <c r="B600" t="n">
+        <v>8052</v>
+      </c>
+      <c r="C600" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D600" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E600" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F600" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G600" t="s">
+        <v>243</v>
+      </c>
+      <c r="H600" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16665,13 +16665,13 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>45467.6493634259</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B600" t="n">
         <v>8052</v>
       </c>
       <c r="C600" t="n">
-        <v>6.1399998664856</v>
+        <v>6.09999990463257</v>
       </c>
       <c r="D600" t="n">
         <v>6.09999990463257</v>
@@ -16686,6 +16686,32 @@
         <v>243</v>
       </c>
       <c r="H600" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>45468.6495138889</v>
+      </c>
+      <c r="B601" t="n">
+        <v>7814</v>
+      </c>
+      <c r="C601" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D601" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F601" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G601" t="s">
+        <v>243</v>
+      </c>
+      <c r="H601" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16691,7 +16691,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>45468.6495138889</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B601" t="n">
         <v>7814</v>
@@ -16712,6 +16712,32 @@
         <v>243</v>
       </c>
       <c r="H601" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>45469.6494560185</v>
+      </c>
+      <c r="B602" t="n">
+        <v>102888</v>
+      </c>
+      <c r="C602" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="D602" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E602" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F602" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G602" t="s">
+        <v>243</v>
+      </c>
+      <c r="H602" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16717,7 +16717,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>45469.6494560185</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B602" t="n">
         <v>102888</v>
@@ -16738,6 +16738,32 @@
         <v>243</v>
       </c>
       <c r="H602" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>45470.6493981481</v>
+      </c>
+      <c r="B603" t="n">
+        <v>3698</v>
+      </c>
+      <c r="C603" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D603" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E603" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="F603" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G603" t="s">
+        <v>244</v>
+      </c>
+      <c r="H603" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16743,7 +16743,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>45470.6493981481</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B603" t="n">
         <v>3698</v>
@@ -16764,6 +16764,32 @@
         <v>244</v>
       </c>
       <c r="H603" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>45471.6495833333</v>
+      </c>
+      <c r="B604" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C604" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D604" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E604" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F604" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G604" t="s">
+        <v>244</v>
+      </c>
+      <c r="H604" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>45471.6495833333</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B604" t="n">
         <v>3944</v>
@@ -16790,6 +16790,32 @@
         <v>244</v>
       </c>
       <c r="H604" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>45474.6495717593</v>
+      </c>
+      <c r="B605" t="n">
+        <v>3228</v>
+      </c>
+      <c r="C605" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D605" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E605" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F605" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G605" t="s">
+        <v>244</v>
+      </c>
+      <c r="H605" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16795,7 +16795,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>45474.6495717593</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B605" t="n">
         <v>3228</v>
@@ -16816,6 +16816,32 @@
         <v>244</v>
       </c>
       <c r="H605" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>45475.6493171296</v>
+      </c>
+      <c r="B606" t="n">
+        <v>4633</v>
+      </c>
+      <c r="C606" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D606" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E606" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F606" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G606" t="s">
+        <v>244</v>
+      </c>
+      <c r="H606" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16821,7 +16821,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>45475.6493171296</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B606" t="n">
         <v>4633</v>
@@ -16842,6 +16842,32 @@
         <v>244</v>
       </c>
       <c r="H606" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>45476.6494212963</v>
+      </c>
+      <c r="B607" t="n">
+        <v>12704</v>
+      </c>
+      <c r="C607" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D607" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E607" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F607" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G607" t="s">
+        <v>243</v>
+      </c>
+      <c r="H607" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16847,7 +16847,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>45476.6494212963</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B607" t="n">
         <v>12704</v>
@@ -16868,6 +16868,32 @@
         <v>243</v>
       </c>
       <c r="H607" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>45477.6496296296</v>
+      </c>
+      <c r="B608" t="n">
+        <v>18076</v>
+      </c>
+      <c r="C608" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D608" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="E608" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F608" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G608" t="s">
+        <v>244</v>
+      </c>
+      <c r="H608" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -16873,7 +16873,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>45477.6496296296</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B608" t="n">
         <v>18076</v>
@@ -16894,6 +16894,32 @@
         <v>244</v>
       </c>
       <c r="H608" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>45478.6497222222</v>
+      </c>
+      <c r="B609" t="n">
+        <v>102266</v>
+      </c>
+      <c r="C609" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D609" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="E609" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F609" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="G609" t="s">
+        <v>242</v>
+      </c>
+      <c r="H609" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.1399998664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05999994277954</t>
   </si>
 </sst>
 </file>
@@ -16899,7 +16902,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>45478.6497222222</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B609" t="n">
         <v>102266</v>
@@ -16920,6 +16923,32 @@
         <v>242</v>
       </c>
       <c r="H609" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>45481.6494791667</v>
+      </c>
+      <c r="B610" t="n">
+        <v>31087</v>
+      </c>
+      <c r="C610" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D610" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E610" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="F610" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="G610" t="s">
+        <v>246</v>
+      </c>
+      <c r="H610" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -16928,7 +16928,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>45481.6494791667</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B610" t="n">
         <v>31087</v>
@@ -16949,6 +16949,32 @@
         <v>246</v>
       </c>
       <c r="H610" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>45482.6494791667</v>
+      </c>
+      <c r="B611" t="n">
+        <v>19407</v>
+      </c>
+      <c r="C611" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="D611" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="E611" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="F611" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="G611" t="s">
+        <v>242</v>
+      </c>
+      <c r="H611" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.05999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01999998092651</t>
   </si>
 </sst>
 </file>
@@ -16954,7 +16957,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>45482.6494791667</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B611" t="n">
         <v>19407</v>
@@ -16975,6 +16978,32 @@
         <v>242</v>
       </c>
       <c r="H611" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>45483.6495833333</v>
+      </c>
+      <c r="B612" t="n">
+        <v>64382</v>
+      </c>
+      <c r="C612" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D612" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E612" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="F612" t="n">
+        <v>6.01999998092651</v>
+      </c>
+      <c r="G612" t="s">
+        <v>247</v>
+      </c>
+      <c r="H612" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.01999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03999996185303</t>
   </si>
 </sst>
 </file>
@@ -16983,7 +16986,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>45483.6495833333</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B612" t="n">
         <v>64382</v>
@@ -16992,7 +16995,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="D612" t="n">
-        <v>6.03999996185303</v>
+        <v>6.01999998092651</v>
       </c>
       <c r="E612" t="n">
         <v>6.07999992370605</v>
@@ -17004,6 +17007,32 @@
         <v>247</v>
       </c>
       <c r="H612" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>45484.6493981481</v>
+      </c>
+      <c r="B613" t="n">
+        <v>121326</v>
+      </c>
+      <c r="C613" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="D613" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E613" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="F613" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="G613" t="s">
+        <v>248</v>
+      </c>
+      <c r="H613" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17012,7 +17012,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>45484.6493981481</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B613" t="n">
         <v>121326</v>
@@ -17033,6 +17033,32 @@
         <v>248</v>
       </c>
       <c r="H613" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>45485.6496296296</v>
+      </c>
+      <c r="B614" t="n">
+        <v>2350</v>
+      </c>
+      <c r="C614" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="D614" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="E614" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="F614" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="G614" t="s">
+        <v>246</v>
+      </c>
+      <c r="H614" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>45485.6496296296</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B614" t="n">
         <v>2350</v>
@@ -17059,6 +17059,32 @@
         <v>246</v>
       </c>
       <c r="H614" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>45488.6493865741</v>
+      </c>
+      <c r="B615" t="n">
+        <v>30604</v>
+      </c>
+      <c r="C615" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D615" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E615" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="F615" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="G615" t="s">
+        <v>242</v>
+      </c>
+      <c r="H615" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17064,7 +17064,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>45488.6493865741</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B615" t="n">
         <v>30604</v>
@@ -17085,6 +17085,32 @@
         <v>242</v>
       </c>
       <c r="H615" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>45489.6496180556</v>
+      </c>
+      <c r="B616" t="n">
+        <v>50039</v>
+      </c>
+      <c r="C616" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D616" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E616" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="F616" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="G616" t="s">
+        <v>248</v>
+      </c>
+      <c r="H616" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17090,7 +17090,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>45489.6496180556</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B616" t="n">
         <v>50039</v>
@@ -17111,6 +17111,32 @@
         <v>248</v>
       </c>
       <c r="H616" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>45490.6494560185</v>
+      </c>
+      <c r="B617" t="n">
+        <v>14878</v>
+      </c>
+      <c r="C617" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="D617" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E617" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="F617" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="G617" t="s">
+        <v>242</v>
+      </c>
+      <c r="H617" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17116,13 +17116,13 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>45490.6494560185</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B617" t="n">
         <v>14878</v>
       </c>
       <c r="C617" t="n">
-        <v>6.05999994277954</v>
+        <v>6.07999992370605</v>
       </c>
       <c r="D617" t="n">
         <v>6.03999996185303</v>
@@ -17137,6 +17137,32 @@
         <v>242</v>
       </c>
       <c r="H617" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>45491.6496412037</v>
+      </c>
+      <c r="B618" t="n">
+        <v>27502</v>
+      </c>
+      <c r="C618" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D618" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E618" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="F618" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="G618" t="s">
+        <v>246</v>
+      </c>
+      <c r="H618" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17142,7 +17142,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>45491.6496412037</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B618" t="n">
         <v>27502</v>
@@ -17163,6 +17163,32 @@
         <v>246</v>
       </c>
       <c r="H618" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>45492.6495717593</v>
+      </c>
+      <c r="B619" t="n">
+        <v>100</v>
+      </c>
+      <c r="C619" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="D619" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="E619" t="n">
+        <v>6.03999996185303</v>
+      </c>
+      <c r="F619" t="n">
+        <v>6.09999990463257</v>
+      </c>
+      <c r="G619" t="s">
+        <v>243</v>
+      </c>
+      <c r="H619" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17168,13 +17168,13 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>45492.6495717593</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B619" t="n">
         <v>100</v>
       </c>
       <c r="C619" t="n">
-        <v>6.03999996185303</v>
+        <v>6.09999990463257</v>
       </c>
       <c r="D619" t="n">
         <v>6.03999996185303</v>
@@ -17189,6 +17189,32 @@
         <v>243</v>
       </c>
       <c r="H619" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>45495.6494907407</v>
+      </c>
+      <c r="B620" t="n">
+        <v>641</v>
+      </c>
+      <c r="C620" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D620" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="E620" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="F620" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="G620" t="s">
+        <v>245</v>
+      </c>
+      <c r="H620" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17194,7 +17194,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>45495.6494907407</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B620" t="n">
         <v>641</v>
@@ -17215,6 +17215,32 @@
         <v>245</v>
       </c>
       <c r="H620" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>45496.649375</v>
+      </c>
+      <c r="B621" t="n">
+        <v>173</v>
+      </c>
+      <c r="C621" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D621" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E621" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F621" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="G621" t="s">
+        <v>245</v>
+      </c>
+      <c r="H621" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17220,13 +17220,13 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>45496.649375</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B621" t="n">
         <v>173</v>
       </c>
       <c r="C621" t="n">
-        <v>6.11999988555908</v>
+        <v>6.1399998664856</v>
       </c>
       <c r="D621" t="n">
         <v>6.11999988555908</v>
@@ -17241,6 +17241,32 @@
         <v>245</v>
       </c>
       <c r="H621" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>45497.4443518519</v>
+      </c>
+      <c r="B622" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C622" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="D622" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="E622" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="F622" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="G622" t="s">
+        <v>245</v>
+      </c>
+      <c r="H622" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17246,7 +17246,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>45497.4443518519</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B622" t="n">
         <v>5250</v>
@@ -17267,6 +17267,32 @@
         <v>245</v>
       </c>
       <c r="H622" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>45498.6494560185</v>
+      </c>
+      <c r="B623" t="n">
+        <v>591</v>
+      </c>
+      <c r="C623" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D623" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E623" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F623" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G623" t="s">
+        <v>244</v>
+      </c>
+      <c r="H623" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17272,7 +17272,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>45498.6494560185</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B623" t="n">
         <v>591</v>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17296,6 +17296,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>45499.2916666667</v>
+      </c>
+      <c r="B624" t="n">
+        <v>0</v>
+      </c>
+      <c r="C624" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D624" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E624" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F624" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="G624" t="s">
+        <v>244</v>
+      </c>
+      <c r="H624" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>45502.6495833333</v>
+      </c>
+      <c r="B625" t="n">
+        <v>377</v>
+      </c>
+      <c r="C625" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D625" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E625" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F625" t="n">
+        <v>6.1399998664856</v>
+      </c>
+      <c r="G625" t="s">
+        <v>245</v>
+      </c>
+      <c r="H625" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17324,13 +17324,13 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>45502.6495833333</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B625" t="n">
         <v>377</v>
       </c>
       <c r="C625" t="n">
-        <v>6.11999988555908</v>
+        <v>6.1399998664856</v>
       </c>
       <c r="D625" t="n">
         <v>6.11999988555908</v>
@@ -17345,6 +17345,32 @@
         <v>245</v>
       </c>
       <c r="H625" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>45503.6495949074</v>
+      </c>
+      <c r="B626" t="n">
+        <v>7349</v>
+      </c>
+      <c r="C626" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="D626" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="E626" t="n">
+        <v>6.11999988555908</v>
+      </c>
+      <c r="F626" t="n">
+        <v>6.05999994277954</v>
+      </c>
+      <c r="G626" t="s">
+        <v>246</v>
+      </c>
+      <c r="H626" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17350,7 +17350,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>45503.6495949074</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B626" t="n">
         <v>7349</v>
@@ -17359,7 +17359,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="D626" t="n">
-        <v>6.11999988555908</v>
+        <v>6.05999994277954</v>
       </c>
       <c r="E626" t="n">
         <v>6.11999988555908</v>
@@ -17371,6 +17371,32 @@
         <v>246</v>
       </c>
       <c r="H626" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>45504.6493055556</v>
+      </c>
+      <c r="B627" t="n">
+        <v>129699</v>
+      </c>
+      <c r="C627" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D627" t="n">
+        <v>5.82000017166138</v>
+      </c>
+      <c r="E627" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="F627" t="n">
+        <v>6</v>
+      </c>
+      <c r="G627" t="s">
+        <v>239</v>
+      </c>
+      <c r="H627" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.03999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92000007629395</t>
   </si>
 </sst>
 </file>
@@ -17376,7 +17379,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>45504.6493055556</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B627" t="n">
         <v>129699</v>
@@ -17397,6 +17400,32 @@
         <v>239</v>
       </c>
       <c r="H627" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>45505.6493171296</v>
+      </c>
+      <c r="B628" t="n">
+        <v>8502</v>
+      </c>
+      <c r="C628" t="n">
+        <v>6</v>
+      </c>
+      <c r="D628" t="n">
+        <v>6</v>
+      </c>
+      <c r="E628" t="n">
+        <v>6</v>
+      </c>
+      <c r="F628" t="n">
+        <v>5.92000007629395</v>
+      </c>
+      <c r="G628" t="s">
+        <v>249</v>
+      </c>
+      <c r="H628" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17405,7 +17405,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>45505.6493171296</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B628" t="n">
         <v>8502</v>
@@ -17414,7 +17414,7 @@
         <v>6</v>
       </c>
       <c r="D628" t="n">
-        <v>6</v>
+        <v>5.92000007629395</v>
       </c>
       <c r="E628" t="n">
         <v>6</v>
@@ -17426,6 +17426,32 @@
         <v>249</v>
       </c>
       <c r="H628" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>45506.649375</v>
+      </c>
+      <c r="B629" t="n">
+        <v>26197</v>
+      </c>
+      <c r="C629" t="n">
+        <v>6</v>
+      </c>
+      <c r="D629" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="E629" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="F629" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="G629" t="s">
+        <v>240</v>
+      </c>
+      <c r="H629" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -762,6 +762,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.92000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94000005722046</t>
   </si>
 </sst>
 </file>
@@ -17431,7 +17434,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>45506.649375</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B629" t="n">
         <v>26197</v>
@@ -17452,6 +17455,32 @@
         <v>240</v>
       </c>
       <c r="H629" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>45509.5874768519</v>
+      </c>
+      <c r="B630" t="n">
+        <v>7885</v>
+      </c>
+      <c r="C630" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="D630" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="E630" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="F630" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="G630" t="s">
+        <v>250</v>
+      </c>
+      <c r="H630" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17460,10 +17460,10 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>45509.5874768519</v>
+        <v>45509.6493981481</v>
       </c>
       <c r="B630" t="n">
-        <v>7885</v>
+        <v>8351</v>
       </c>
       <c r="C630" t="n">
         <v>5.96000003814697</v>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17460,7 +17460,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>45509.6493981481</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B630" t="n">
         <v>8351</v>
@@ -17481,6 +17481,58 @@
         <v>250</v>
       </c>
       <c r="H630" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B631" t="n">
+        <v>23800</v>
+      </c>
+      <c r="C631" t="n">
+        <v>6</v>
+      </c>
+      <c r="D631" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="E631" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="F631" t="n">
+        <v>6</v>
+      </c>
+      <c r="G631" t="s">
+        <v>239</v>
+      </c>
+      <c r="H631" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>45511.6112615741</v>
+      </c>
+      <c r="B632" t="n">
+        <v>33461</v>
+      </c>
+      <c r="C632" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="D632" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="E632" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="F632" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="G632" t="s">
+        <v>250</v>
+      </c>
+      <c r="H632" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17512,7 +17512,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>45511.6112615741</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B632" t="n">
         <v>33461</v>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.94000005722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90000009536743</t>
   </si>
 </sst>
 </file>
@@ -17536,6 +17539,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>45512.2916666667</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0</v>
+      </c>
+      <c r="C633" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="D633" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="E633" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="F633" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="G633" t="s">
+        <v>250</v>
+      </c>
+      <c r="H633" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>45513.5027777778</v>
+      </c>
+      <c r="B634" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C634" t="n">
+        <v>5.90000009536743</v>
+      </c>
+      <c r="D634" t="n">
+        <v>5.88000011444092</v>
+      </c>
+      <c r="E634" t="n">
+        <v>5.88000011444092</v>
+      </c>
+      <c r="F634" t="n">
+        <v>5.90000009536743</v>
+      </c>
+      <c r="G634" t="s">
+        <v>251</v>
+      </c>
+      <c r="H634" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17567,7 +17567,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>45513.5027777778</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B634" t="n">
         <v>1065</v>
@@ -17588,6 +17588,32 @@
         <v>251</v>
       </c>
       <c r="H634" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>45516.6376157407</v>
+      </c>
+      <c r="B635" t="n">
+        <v>54726</v>
+      </c>
+      <c r="C635" t="n">
+        <v>6</v>
+      </c>
+      <c r="D635" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="E635" t="n">
+        <v>6</v>
+      </c>
+      <c r="F635" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="G635" t="s">
+        <v>240</v>
+      </c>
+      <c r="H635" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17593,7 +17593,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>45516.6376157407</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B635" t="n">
         <v>54726</v>
@@ -17614,6 +17614,32 @@
         <v>240</v>
       </c>
       <c r="H635" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>45517.6495833333</v>
+      </c>
+      <c r="B636" t="n">
+        <v>21083</v>
+      </c>
+      <c r="C636" t="n">
+        <v>6</v>
+      </c>
+      <c r="D636" t="n">
+        <v>5.94000005722046</v>
+      </c>
+      <c r="E636" t="n">
+        <v>5.96000003814697</v>
+      </c>
+      <c r="F636" t="n">
+        <v>6</v>
+      </c>
+      <c r="G636" t="s">
+        <v>239</v>
+      </c>
+      <c r="H636" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.90000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17999982833862</t>
   </si>
 </sst>
 </file>
@@ -17619,7 +17622,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>45517.6495833333</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B636" t="n">
         <v>21083</v>
@@ -17640,6 +17643,32 @@
         <v>239</v>
       </c>
       <c r="H636" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>45518.6494675926</v>
+      </c>
+      <c r="B637" t="n">
+        <v>42904</v>
+      </c>
+      <c r="C637" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="D637" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E637" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="F637" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="G637" t="s">
+        <v>252</v>
+      </c>
+      <c r="H637" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062538146973</t>
+    <t xml:space="preserve">3.74062514305115</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.891761302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90120768547058</t>
+    <t xml:space="preserve">3.89176154136658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901207447052</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453177452087</t>
+    <t xml:space="preserve">3.84453153610229</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286949157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371485710144</t>
+    <t xml:space="preserve">3.87286925315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371461868286</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654127120972</t>
+    <t xml:space="preserve">3.91065359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654174804688</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210947036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071048736572</t>
+    <t xml:space="preserve">4.26960277557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210994720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071001052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400636672974</t>
+    <t xml:space="preserve">4.02400588989258</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814618110657</t>
+    <t xml:space="preserve">3.86814641952515</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89648461341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01456022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622131347656</t>
+    <t xml:space="preserve">3.896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01455974578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622179031372</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.773686170578</t>
+    <t xml:space="preserve">3.77368593215942</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671898841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228694915771</t>
+    <t xml:space="preserve">3.63671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228718757629</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561079978943</t>
+    <t xml:space="preserve">3.65561103820801</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759256362915</t>
+    <t xml:space="preserve">3.95316052436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759232521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788359642029</t>
+    <t xml:space="preserve">3.95788383483887</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365772247314</t>
+    <t xml:space="preserve">3.60365796089172</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007128715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.646164894104</t>
+    <t xml:space="preserve">3.75007104873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64616465568542</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482304573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899154663086</t>
+    <t xml:space="preserve">3.92482256889343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899178504944</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1137433052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872848510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.146803855896</t>
+    <t xml:space="preserve">4.11374282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14680433273315</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403409957886</t>
+    <t xml:space="preserve">4.19403457641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3687858581543</t>
+    <t xml:space="preserve">4.36878538131714</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155561447144</t>
+    <t xml:space="preserve">4.32155513763428</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37350845336914</t>
+    <t xml:space="preserve">4.3735089302063</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832389831543</t>
+    <t xml:space="preserve">3.26832413673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803286552429</t>
+    <t xml:space="preserve">3.18803262710571</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.244708776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610823631287</t>
+    <t xml:space="preserve">3.24470901489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610799789429</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138516426086</t>
+    <t xml:space="preserve">3.30138492584229</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24943208694458</t>
+    <t xml:space="preserve">3.249431848526</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304673194885</t>
+    <t xml:space="preserve">3.27304697036743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362951278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333824157715</t>
+    <t xml:space="preserve">3.43362927436829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861540794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333800315857</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004260063171</t>
+    <t xml:space="preserve">3.58004283905029</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>45518.6494675926</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B637" t="n">
         <v>42904</v>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17672,6 +17672,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>45520.6493981481</v>
+      </c>
+      <c r="B638" t="n">
+        <v>5009</v>
+      </c>
+      <c r="C638" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="D638" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E638" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="F638" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="G638" t="s">
+        <v>252</v>
+      </c>
+      <c r="H638" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.17999982833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15999984741211</t>
   </si>
 </sst>
 </file>
@@ -17674,7 +17677,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>45520.6493981481</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B638" t="n">
         <v>5009</v>
@@ -17695,6 +17698,32 @@
         <v>252</v>
       </c>
       <c r="H638" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>45523.6494328704</v>
+      </c>
+      <c r="B639" t="n">
+        <v>3431</v>
+      </c>
+      <c r="C639" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="D639" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E639" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="F639" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="G639" t="s">
+        <v>253</v>
+      </c>
+      <c r="H639" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17703,7 +17703,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>45523.6494328704</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B639" t="n">
         <v>3431</v>
@@ -17724,6 +17724,32 @@
         <v>253</v>
       </c>
       <c r="H639" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>45524.6493518519</v>
+      </c>
+      <c r="B640" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C640" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="D640" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E640" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="F640" t="n">
+        <v>6.17999982833862</v>
+      </c>
+      <c r="G640" t="s">
+        <v>252</v>
+      </c>
+      <c r="H640" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17729,13 +17729,13 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>45524.6493518519</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B640" t="n">
         <v>2674</v>
       </c>
       <c r="C640" t="n">
-        <v>6.15999984741211</v>
+        <v>6.17999982833862</v>
       </c>
       <c r="D640" t="n">
         <v>6.15999984741211</v>
@@ -17750,6 +17750,32 @@
         <v>252</v>
       </c>
       <c r="H640" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>45525.6500578704</v>
+      </c>
+      <c r="B641" t="n">
+        <v>31357</v>
+      </c>
+      <c r="C641" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="D641" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E641" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="F641" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="G641" t="s">
+        <v>253</v>
+      </c>
+      <c r="H641" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17755,7 +17755,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>45525.6500578704</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B641" t="n">
         <v>31357</v>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -17779,6 +17779,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>45526.2916666667</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="D642" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E642" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="F642" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="G642" t="s">
+        <v>253</v>
+      </c>
+      <c r="H642" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -17805,6 +17805,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>45527.2916666667</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0</v>
+      </c>
+      <c r="C643" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="D643" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="E643" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="F643" t="n">
+        <v>6.15999984741211</v>
+      </c>
+      <c r="G643" t="s">
+        <v>253</v>
+      </c>
+      <c r="H643" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>

--- a/data/CNS.MI.xlsx
+++ b/data/CNS.MI.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">3.76896333694458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74062514305115</t>
+    <t xml:space="preserve">3.74062538146973</t>
   </si>
   <si>
     <t xml:space="preserve">3.77840924263</t>
@@ -77,34 +77,34 @@
     <t xml:space="preserve">3.67450308799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89176154136658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.901207447052</t>
+    <t xml:space="preserve">3.891761302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90120768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.86342358589172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84453153610229</t>
+    <t xml:space="preserve">3.84453177452087</t>
   </si>
   <si>
     <t xml:space="preserve">3.78785538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87286925315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94371461868286</t>
+    <t xml:space="preserve">3.87286949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.82563948631287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91065359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23654174804688</t>
+    <t xml:space="preserve">3.91065335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23654127120972</t>
   </si>
   <si>
     <t xml:space="preserve">4.34517049789429</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">4.43490791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26960277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31210994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25071001052856</t>
+    <t xml:space="preserve">4.26960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31210947036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25071048736572</t>
   </si>
   <si>
     <t xml:space="preserve">4.15152740478516</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">4.08068227767944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02400588989258</t>
+    <t xml:space="preserve">4.02400636672974</t>
   </si>
   <si>
     <t xml:space="preserve">4.14208126068115</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.94843745231628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86814641952515</t>
+    <t xml:space="preserve">3.86814618110657</t>
   </si>
   <si>
     <t xml:space="preserve">3.93426871299744</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">3.887038230896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01455974578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98622179031372</t>
+    <t xml:space="preserve">3.89648461341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01456022262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98622131347656</t>
   </si>
   <si>
     <t xml:space="preserve">3.90593075752258</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">3.80202436447144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77368593215942</t>
+    <t xml:space="preserve">3.773686170578</t>
   </si>
   <si>
     <t xml:space="preserve">3.79730129241943</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">3.72173309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71228718757629</t>
+    <t xml:space="preserve">3.63671898841858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71228694915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.69811797142029</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">3.59421181678772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65561103820801</t>
+    <t xml:space="preserve">3.65561079978943</t>
   </si>
   <si>
     <t xml:space="preserve">3.75479412078857</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">3.81147003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95316052436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87759232521057</t>
+    <t xml:space="preserve">3.95316076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87759256362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.92009949684143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95788383483887</t>
+    <t xml:space="preserve">3.95788359642029</t>
   </si>
   <si>
     <t xml:space="preserve">3.91537666320801</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">3.83508539199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60365796089172</t>
+    <t xml:space="preserve">3.60365772247314</t>
   </si>
   <si>
     <t xml:space="preserve">3.62727284431458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75007104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64616465568542</t>
+    <t xml:space="preserve">3.75007128715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.646164894104</t>
   </si>
   <si>
     <t xml:space="preserve">3.88231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92482256889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93899178504944</t>
+    <t xml:space="preserve">3.92482304573059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93899154663086</t>
   </si>
   <si>
     <t xml:space="preserve">4.09957408905029</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">4.06651258468628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11374282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02872896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14680433273315</t>
+    <t xml:space="preserve">4.1137433052063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.146803855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.15625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19403457641602</t>
+    <t xml:space="preserve">4.19403409957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.38295459747314</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.39240074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36878538131714</t>
+    <t xml:space="preserve">4.3687858581543</t>
   </si>
   <si>
     <t xml:space="preserve">4.44907712936401</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">4.30738639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32155513763428</t>
+    <t xml:space="preserve">4.32155561447144</t>
   </si>
   <si>
     <t xml:space="preserve">4.40656995773315</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">4.31683254241943</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3735089302063</t>
+    <t xml:space="preserve">4.37350845336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.33572483062744</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">3.31555414199829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26832413673401</t>
+    <t xml:space="preserve">3.26832389831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.31083130836487</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">3.19275593757629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18803262710571</t>
+    <t xml:space="preserve">3.18803286552429</t>
   </si>
   <si>
     <t xml:space="preserve">3.18330979347229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24470901489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30610799789429</t>
+    <t xml:space="preserve">3.244708776474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30610823631287</t>
   </si>
   <si>
     <t xml:space="preserve">3.254154920578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30138492584229</t>
+    <t xml:space="preserve">3.30138516426086</t>
   </si>
   <si>
     <t xml:space="preserve">3.27777004241943</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.25887799263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.249431848526</t>
+    <t xml:space="preserve">3.24943208694458</t>
   </si>
   <si>
     <t xml:space="preserve">3.29193902015686</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">3.26360082626343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27304697036743</t>
+    <t xml:space="preserve">3.27304673194885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23998594284058</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">3.34389209747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43362927436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34861540794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35333800315857</t>
+    <t xml:space="preserve">3.43362951278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34861516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35333824157715</t>
   </si>
   <si>
     <t xml:space="preserve">3.43835258483887</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">3.55170464515686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58004283905029</t>
+    <t xml:space="preserve">3.58004260063171</t>
   </si>
   <si>
     <t xml:space="preserve">3.41946029663086</t>
@@ -781,7 +781,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -819,7 +819,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
